--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuOrignal.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuOrignal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94C7BBF-EEE0-4AD8-983A-82D8AA3FF45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFF3988-B64D-497D-B97E-8B57B08DBBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="1920" windowWidth="21840" windowHeight="10896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -318,14 +318,57 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode.InsuTypeCode
+    <r>
+      <t>CdCode.InsuTypeCode
 01:住宅火險地震險
-02:火險
+02:住宅火險(長單)
 03:地震險
-04:汽車全險
-05:綜合營造險
+04:汽車全險(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>目前已停用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>)
+05:綜合營造險(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>目前已停用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>)
 06:動產火險
-07:其他</t>
+07:其他
+08:商業火災保險</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -333,7 +376,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -418,6 +461,13 @@
       <color rgb="FF000000"/>
       <name val="細明體"/>
       <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -943,7 +993,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1175,7 +1225,7 @@
       </c>
       <c r="F14" s="24"/>
     </row>
-    <row r="15" spans="1:7" ht="129.6">
+    <row r="15" spans="1:7" ht="145.80000000000001">
       <c r="A15" s="19">
         <v>7</v>
       </c>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuOrignal.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuOrignal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFF3988-B64D-497D-B97E-8B57B08DBBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06072B1E-14D7-4239-A2CB-C38CDB04E0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="1920" windowWidth="21840" windowHeight="10896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -370,6 +370,21 @@
 08:商業火災保險</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保單收件日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuReceiptDate</t>
   </si>
 </sst>
 </file>
@@ -554,7 +569,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -570,10 +585,10 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -585,9 +600,6 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -599,9 +611,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -990,28 +999,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="6" style="16" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.44140625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46" style="16" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="7"/>
+    <col min="1" max="1" width="6" style="14" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.453125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="21.453125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="3" t="s">
         <v>39</v>
       </c>
@@ -1023,78 +1032,78 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="8" t="s">
         <v>60</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="1:7" ht="32.4">
-      <c r="A3" s="31" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" ht="34">
+      <c r="A3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" s="15" customFormat="1">
+      <c r="D7" s="12"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1113,361 +1122,379 @@
       <c r="F8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="19">
+      <c r="A9" s="17">
         <v>1</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="22">
         <v>1</v>
       </c>
-      <c r="F9" s="24"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="19">
+      <c r="A10" s="17">
         <v>2</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="22">
         <v>2</v>
       </c>
-      <c r="F10" s="24"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="19">
+      <c r="A11" s="17">
         <v>3</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="22">
         <v>7</v>
       </c>
-      <c r="F11" s="24"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="19">
+      <c r="A12" s="17">
         <v>4</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="22">
         <v>17</v>
       </c>
-      <c r="F12" s="24"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="19">
+      <c r="A13" s="17">
         <v>5</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="22">
         <v>17</v>
       </c>
-      <c r="G13" s="23"/>
+      <c r="G13" s="21"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="19">
+      <c r="A14" s="17">
         <v>6</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="22">
         <v>2</v>
       </c>
-      <c r="F14" s="24"/>
-    </row>
-    <row r="15" spans="1:7" ht="145.80000000000001">
-      <c r="A15" s="19">
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" spans="1:7" ht="153">
+      <c r="A15" s="17">
         <v>7</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="17">
         <v>2</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="25" t="s">
+      <c r="F15" s="17"/>
+      <c r="G15" s="23" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="19">
+      <c r="A16" s="17">
         <v>8</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="17">
         <v>16</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="19">
+      <c r="A17" s="17">
         <v>9</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="17">
         <v>16</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="19">
+      <c r="A18" s="17">
         <v>10</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="17">
         <v>16</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="19">
+      <c r="A19" s="17">
         <v>11</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="19">
+      <c r="D19" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="17">
         <v>16</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="19">
+      <c r="A20" s="17">
         <v>12</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="22">
         <v>8</v>
       </c>
-      <c r="F20" s="19"/>
+      <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="19">
+      <c r="A21" s="17">
         <v>13</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="22">
         <v>8</v>
       </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="16" t="s">
+      <c r="F21" s="22"/>
+      <c r="G21" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="19">
+      <c r="A22" s="17">
         <v>14</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="22">
+        <v>2</v>
+      </c>
+      <c r="F22" s="22"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="17">
+        <v>15</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="22">
+        <v>8</v>
+      </c>
+      <c r="F23" s="22"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="17">
+        <v>16</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="24">
-        <v>2</v>
-      </c>
-      <c r="F22" s="24"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="19">
-        <v>15</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="24">
+      <c r="E24" s="22">
         <v>50</v>
       </c>
-      <c r="F23" s="24"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="19">
-        <v>16</v>
-      </c>
-      <c r="B24" s="20" t="s">
+      <c r="F24" s="22"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="17">
+        <v>17</v>
+      </c>
+      <c r="B25" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C25" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D25" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="19">
-        <v>17</v>
-      </c>
-      <c r="B25" s="20" t="s">
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="17">
+        <v>18</v>
+      </c>
+      <c r="B26" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C26" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D26" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E26" s="17">
         <v>6</v>
       </c>
-      <c r="F25" s="19"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="19">
-        <v>18</v>
-      </c>
-      <c r="B26" s="20" t="s">
+      <c r="F26" s="17"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="17">
+        <v>19</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C27" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D27" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="19">
-        <v>19</v>
-      </c>
-      <c r="B27" s="20" t="s">
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="17">
+        <v>20</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C28" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D28" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E28" s="17">
         <v>6</v>
       </c>
-      <c r="F27" s="19"/>
+      <c r="F28" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1494,11 +1521,11 @@
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="71.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.1796875" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuOrignal.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuOrignal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06072B1E-14D7-4239-A2CB-C38CDB04E0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F4435A-F5B6-457C-B6CB-47B6C019237C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -277,10 +277,6 @@
   <si>
     <t>EndoInsuNo</t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>OrigInsuNo Asc,EndoInsuNo Asc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>insuEndDateRange</t>
@@ -385,6 +381,10 @@
   </si>
   <si>
     <t>InsuReceiptDate</t>
+  </si>
+  <si>
+    <t>OrigInsuNo Asc,EndoInsuNo Asc,ClNo Desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1001,19 +1001,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="6" style="14" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.453125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.44140625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="21.453125" style="7"/>
+    <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1044,7 +1044,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" ht="34">
+    <row r="3" spans="1:7" ht="32.4">
       <c r="A3" s="29" t="s">
         <v>8</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>26</v>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="F14" s="22"/>
     </row>
-    <row r="15" spans="1:7" ht="153">
+    <row r="15" spans="1:7" ht="145.80000000000001">
       <c r="A15" s="17">
         <v>7</v>
       </c>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1326,7 +1326,7 @@
         <v>32</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E19" s="17">
         <v>16</v>
@@ -1379,13 +1379,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="25" t="s">
-        <v>77</v>
-      </c>
       <c r="D22" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E22" s="22">
         <v>2</v>
@@ -1397,10 +1397,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>63</v>
@@ -1415,10 +1415,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="20" t="s">
         <v>78</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>79</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>35</v>
@@ -1516,16 +1516,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="19.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="71.08984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.1796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.21875" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1553,13 +1553,13 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1567,15 +1567,15 @@
         <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuOrignal.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuOrignal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F4435A-F5B6-457C-B6CB-47B6C019237C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560BB290-99BC-4B2C-9BB1-8A64881C0006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="86">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -385,6 +385,10 @@
   <si>
     <t>OrigInsuNo Asc,EndoInsuNo Asc,ClNo Desc</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>轉換留存(擔保品唯一性被合併之擔保品編號其保險單資料)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -569,7 +573,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -658,6 +662,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -679,9 +686,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -719,9 +726,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -754,26 +761,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -806,26 +796,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1001,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1427,6 +1400,9 @@
         <v>50</v>
       </c>
       <c r="F24" s="22"/>
+      <c r="G24" s="30" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="17">
@@ -1516,7 +1492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuOrignal.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuOrignal.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560BB290-99BC-4B2C-9BB1-8A64881C0006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="90">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -88,10 +87,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>火險初保檔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>InsuTypeCode</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -211,10 +206,6 @@
     <t>最後更新人員</t>
   </si>
   <si>
-    <t>CreateDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>DATE</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -292,10 +283,6 @@
   </si>
   <si>
     <t>ClCode1 = ,AND ClCode2 = ,AND ClNo = ,AND OrigInsuNo =</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findOrigInsuNoEq</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -387,14 +374,42 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>轉換留存(擔保品唯一性被合併之擔保品編號其保險單資料)</t>
+    <t>OrigInsuNo =</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findOrigInsuNoAll</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClCode1,ClCode2,ClNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findOrigInsuNoEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findOrigInsuNoFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDate</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDate ASC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>擔保品火險檔</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13">
     <font>
       <sz val="12"/>
@@ -652,6 +667,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -662,15 +680,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -686,9 +701,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -726,9 +741,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -763,7 +778,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -798,7 +813,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -971,11 +986,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -990,25 +1005,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -1018,12 +1033,12 @@
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" ht="32.4">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>17</v>
@@ -1033,10 +1048,10 @@
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
       <c r="E4" s="5"/>
@@ -1044,10 +1059,10 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="11"/>
       <c r="D5" s="12"/>
       <c r="E5" s="5"/>
@@ -1055,10 +1070,10 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="27"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="3"/>
       <c r="D6" s="12"/>
       <c r="E6" s="5"/>
@@ -1066,10 +1081,10 @@
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="3"/>
       <c r="D7" s="12"/>
       <c r="E7" s="5"/>
@@ -1104,13 +1119,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="22">
         <v>1</v>
@@ -1122,13 +1137,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="22">
         <v>2</v>
@@ -1140,13 +1155,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" s="22">
         <v>7</v>
@@ -1158,13 +1173,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="22">
         <v>17</v>
@@ -1176,13 +1191,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E13" s="22">
         <v>17</v>
@@ -1194,13 +1209,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" s="22">
         <v>2</v>
@@ -1212,20 +1227,20 @@
         <v>7</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" s="17">
         <v>2</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1233,13 +1248,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" s="17">
         <v>16</v>
@@ -1253,13 +1268,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" s="17">
         <v>16</v>
@@ -1273,13 +1288,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" s="17">
         <v>16</v>
@@ -1293,13 +1308,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E19" s="17">
         <v>16</v>
@@ -1313,13 +1328,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E20" s="22">
         <v>8</v>
@@ -1331,20 +1346,20 @@
         <v>13</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E21" s="22">
         <v>8</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1352,13 +1367,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E22" s="22">
         <v>2</v>
@@ -1370,13 +1385,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E23" s="22">
         <v>8</v>
@@ -1388,34 +1403,32 @@
         <v>16</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E24" s="22">
         <v>50</v>
       </c>
       <c r="F24" s="22"/>
-      <c r="G24" s="30" t="s">
-        <v>85</v>
-      </c>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="17">
         <v>17</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
@@ -1425,13 +1438,13 @@
         <v>18</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E26" s="17">
         <v>6</v>
@@ -1443,13 +1456,13 @@
         <v>19</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
@@ -1459,13 +1472,13 @@
         <v>20</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E28" s="17">
         <v>6</v>
@@ -1489,17 +1502,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="34.21875" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
@@ -1518,40 +1531,62 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuOrignal.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuOrignal.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7949DD-496B-46C4-B9F9-2598669C3318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -206,10 +207,6 @@
     <t>最後更新人員</t>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>CreateEmpNo</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -219,10 +216,6 @@
   </si>
   <si>
     <t>LastUpdate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -405,12 +398,15 @@
     <t>擔保品火險檔</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -685,7 +681,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -701,9 +697,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -741,9 +737,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -778,7 +774,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -813,7 +809,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -986,14 +982,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="14" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" style="14" bestFit="1" customWidth="1"/>
@@ -1004,7 +1000,7 @@
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>7</v>
       </c>
@@ -1013,17 +1009,17 @@
         <v>38</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="27"/>
       <c r="B2" s="28"/>
       <c r="C2" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -1032,13 +1028,13 @@
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" ht="32.4">
+    <row r="3" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>17</v>
@@ -1047,7 +1043,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>10</v>
       </c>
@@ -1058,7 +1054,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>4</v>
       </c>
@@ -1069,7 +1065,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>5</v>
       </c>
@@ -1080,7 +1076,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
         <v>6</v>
       </c>
@@ -1091,7 +1087,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1114,7 +1110,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>1</v>
       </c>
@@ -1132,7 +1128,7 @@
       </c>
       <c r="F9" s="22"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>2</v>
       </c>
@@ -1150,7 +1146,7 @@
       </c>
       <c r="F10" s="22"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>3</v>
       </c>
@@ -1168,12 +1164,12 @@
       </c>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>25</v>
@@ -1186,30 +1182,30 @@
       </c>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>5</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13" s="22">
         <v>17</v>
       </c>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>6</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>26</v>
@@ -1222,7 +1218,7 @@
       </c>
       <c r="F14" s="22"/>
     </row>
-    <row r="15" spans="1:7" ht="145.80000000000001">
+    <row r="15" spans="1:7" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>7</v>
       </c>
@@ -1240,10 +1236,10 @@
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>8</v>
       </c>
@@ -1263,7 +1259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>9</v>
       </c>
@@ -1283,12 +1279,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>10</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>30</v>
@@ -1303,7 +1299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>11</v>
       </c>
@@ -1314,7 +1310,7 @@
         <v>31</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E19" s="17">
         <v>16</v>
@@ -1323,7 +1319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>12</v>
       </c>
@@ -1334,14 +1330,14 @@
         <v>32</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E20" s="22">
         <v>8</v>
       </c>
       <c r="F20" s="17"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>13</v>
       </c>
@@ -1352,61 +1348,61 @@
         <v>33</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E21" s="22">
         <v>8</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>14</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E22" s="22">
         <v>2</v>
       </c>
       <c r="F22" s="22"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>15</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E23" s="22">
         <v>8</v>
       </c>
       <c r="F23" s="22"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>16</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>34</v>
@@ -1417,68 +1413,68 @@
       <c r="F24" s="22"/>
       <c r="G24" s="26"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>17</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>48</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>18</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>49</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E26" s="17">
         <v>6</v>
       </c>
       <c r="F26" s="17"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>19</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>50</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>20</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E28" s="17">
         <v>6</v>
@@ -1502,7 +1498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -1510,7 +1506,7 @@
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
@@ -1518,7 +1514,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1529,7 +1525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
@@ -1540,53 +1536,53 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
